--- a/Arbeitsprotokoll.xlsx
+++ b/Arbeitsprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHULE\AP_SWE\GitHub\FutureFarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363C2939-C434-4A97-90E5-11C12616EB80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427DAF09-9DAA-4C17-9528-DE9C6E63443A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E94A4FA0-5545-4C62-A075-9AF689F58C12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Aneignung GitHub per Videos</t>
+  </si>
+  <si>
+    <t>laufend</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,12 +135,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,7 +458,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,41 +471,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43655</v>
       </c>
       <c r="B4" t="s">
@@ -511,170 +517,188 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.43402777777777773</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>F4-E4</f>
         <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5-E5</f>
+        <v>2.430555555555558E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
